--- a/biology/Botanique/Forêt_de_Sillé/Forêt_de_Sillé.xlsx
+++ b/biology/Botanique/Forêt_de_Sillé/Forêt_de_Sillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Sill%C3%A9</t>
+          <t>Forêt_de_Sillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Sillé est une forêt située aux confins des départements de la Mayenne (Saint-Pierre-sur-Orthe, Saint-Germain-de-Coulamer...) à l'ouest, et de la Sarthe (Sillé-le-Guillaume, Rouessé-Vassé, Mont-Saint-Jean, Montreuil-le-Chétif...) à l'est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Sill%C3%A9</t>
+          <t>Forêt_de_Sillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancienne propriété des barons de Sillé, la forêt est achetée par Louis XIV en 1683 pour sa fille légitimé la Mademoiselle de Blois[2]. La forêt d'environ 3 500ha devint propriété de l'État en 1925. Depuis la fin du XVIe siècle, la forêt a été exploitée pour fournir le charbon de bois nécessaire à la métallurgie. Au cœur de ce massif forestier, un lac de 40 ha permet de pratiquer de nombreuses activités nautiques ; pratique également de l'escalade sur les sites de Rochebrune ou du Saut du Serf.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancienne propriété des barons de Sillé, la forêt est achetée par Louis XIV en 1683 pour sa fille légitimé la Mademoiselle de Blois. La forêt d'environ 3 500ha devint propriété de l'État en 1925. Depuis la fin du XVIe siècle, la forêt a été exploitée pour fournir le charbon de bois nécessaire à la métallurgie. Au cœur de ce massif forestier, un lac de 40 ha permet de pratiquer de nombreuses activités nautiques ; pratique également de l'escalade sur les sites de Rochebrune ou du Saut du Serf.
 On distingue deux forêts : celle de Sillé et le bois de Pezé au nord-est de celle-ci.
 </t>
         </is>
